--- a/console/Networking/iaas-network/routerMixinsXlsx/components/routerTable_ruleTable.xlsx
+++ b/console/Networking/iaas-network/routerMixinsXlsx/components/routerTable_ruleTable.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -924,18 +929,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Target End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Type of Next Hop</t>
     </r>
   </si>
@@ -972,42 +965,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘No Available Virtual Machines’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘No Available VPC Peering Connection’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘No Available Border Gateway’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Delete</t>
     </r>
   </si>
@@ -1080,79 +1037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘After deleting Internet route rules, the instances in the subnet to which the route table is associated will not be able to perform public network communication over the public IP.’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Delete Route’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Route Table Rules are</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Machine Drop-down List Data are</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Delete Route Table Policies Successfully, the Return as Follows</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>‘Only network segments or single IP address are allowed to be entered’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‘Duplication of Target End’</t>
     </r>
   </si>
   <si>
@@ -1184,43 +1069,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Target end cannot be blank’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Begin to get Route Table Rules’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Begin to get Machine Drop-down List’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Begin to get VPC Peering Drop-down List’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘Begin to get Border Gateway Drop-down List’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘Begin to delete Route Table Policies’</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Begin to add Route Table Policies’</t>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>No available Virtual Machines'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Added Route Table Policies, the Return as Follows</t>
+    <t>No available VPC Peering Connection'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Begin to modify Route Table Policies’</t>
+    <t>No available Border Gateway'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Modified Route Table Policies, the Return as Follows</t>
+    <t>'After the internet route rule has been deleted, the instances in the subnet to which the route table is associated will not be able to perform public network communication over the EIP.'</t>
+  </si>
+  <si>
+    <t>‘Delete Route rule’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination cannot be null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to get Route Table rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Table rules are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to get drop-down list of  Virtual Machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop-down list data of Virtual Machine are</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to get drop-down list of VPC Peering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to get drop-down list of Border Gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Table policies modified, the return as follows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Table policies deleted, the return as follows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to add Route Table policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route Table policies added, the return as follows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to modify Route Table policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination Address Duplication'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1241,6 +1164,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1264,14 +1194,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1610,17 +1552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="A1:C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.36328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
-    <col min="3" max="3" width="68.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.54296875" customWidth="1"/>
+    <col min="3" max="3" width="68.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1661,10 +1603,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1672,10 +1614,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1683,10 +1625,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1694,43 +1636,43 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1738,10 +1680,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1749,10 +1691,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1760,10 +1702,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,10 +1713,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1782,10 +1724,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1793,10 +1735,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,10 +1746,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1815,10 +1757,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1826,87 +1768,87 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1914,65 +1856,65 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1980,21 +1922,21 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2002,10 +1944,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2013,12 +1955,13 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B36" numberStoredAsText="1"/>
   </ignoredErrors>
